--- a/src/test/java/com/eBanking/testData/Input Data.xlsx
+++ b/src/test/java/com/eBanking/testData/Input Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="3540"/>
   </bookViews>
   <sheets>
     <sheet name="UserName" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>firstName</t>
   </si>
@@ -66,16 +66,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr357093</t>
-  </si>
-  <si>
-    <t>YnyvUde</t>
-  </si>
-  <si>
-    <t>mngr357094</t>
-  </si>
-  <si>
-    <t>sdncbiahi</t>
+    <t>mngr364988</t>
+  </si>
+  <si>
+    <t>mngr364984</t>
+  </si>
+  <si>
+    <t>rymuzUm</t>
   </si>
 </sst>
 </file>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +443,7 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -454,38 +451,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
